--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Основные обьекты" sheetId="1" r:id="rId1"/>
+    <sheet name="Функционал" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -345,7 +345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -360,7 +360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
